--- a/biology/Botanique/Gaillet_à_feuilles_rondes/Gaillet_à_feuilles_rondes.xlsx
+++ b/biology/Botanique/Gaillet_à_feuilles_rondes/Gaillet_à_feuilles_rondes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaillet_%C3%A0_feuilles_rondes</t>
+          <t>Gaillet_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galium rotundifolium
 Le Gaillet à feuilles rondes (Galium rotundifolium) est une espèce de plante herbacée de la famille des Rubiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaillet_%C3%A0_feuilles_rondes</t>
+          <t>Gaillet_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige longue de 15-30 cm, couchée-ascendante, grêle, généralement non-rameuse, poilue aux angles ou glabrescente. Feuilles moyennes largement ovales-elliptiques, verticillées par 4, longues de 0,5-2 cm, obtuses, brièvement qui se terminent  par une petite pointe droite et raide, inflorescence pauciflore, lâche. Fleurs blanches à verdâtres, diamètre env. 3 mm,  lobes pointus. Fruit d’environ 2 mm, hérissé de soies crochues.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaillet_%C3%A0_feuilles_rondes</t>
+          <t>Gaillet_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cycle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace. Floraison, suivant les régions, de mai à septembre.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gaillet_%C3%A0_feuilles_rondes</t>
+          <t>Gaillet_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Préfère les sols acides et siliceux. Sous-bois frais herbacés, en particulier sapinières, pessières et hêtraies-sapinières, de 500 à 2 000 m. Europe, jusqu'à la Scandinavie. En France : Vosges ; Jura et Bugey ; Alpes ; Forez, Auvergne, Cévennes ; Corbières et Pyrénées. Centre et ouest du Caucase et Asie Mineure.
 </t>
